--- a/output/Tables/Linear/1€_km_duration.xlsx
+++ b/output/Tables/Linear/1€_km_duration.xlsx
@@ -1,21 +1,53 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10119"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ines/Documents/M2/ENS/Stage/Walking benefits/codes/walking/output/Tables/Linear/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C8E4309-FD42-164F-89EE-5E87E175732F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="500" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+  <si>
+    <t>km_2.5</t>
+  </si>
+  <si>
+    <t>km_50</t>
+  </si>
+  <si>
+    <t>km_97.5</t>
+  </si>
+  <si>
+    <t>duration_2.5</t>
+  </si>
+  <si>
+    <t>duration_50</t>
+  </si>
+  <si>
+    <t>duration_97.5</t>
+  </si>
+  <si>
+    <t>euro</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -63,13 +95,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -107,7 +147,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -141,6 +181,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -175,9 +216,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -350,68 +392,62 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.83203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>km_2.5</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>km_50</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>km_97.5</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>duration_2.5</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>duration_50</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>duration_97.5</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>euro</t>
-        </is>
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>6.755650556479598</v>
+        <v>6.7556505564795977</v>
       </c>
       <c r="B2">
-        <v>9.537183098891155</v>
+        <v>9.5371830988911555</v>
       </c>
       <c r="C2">
-        <v>17.40418070277788</v>
+        <v>17.404180702777879</v>
       </c>
       <c r="D2">
-        <v>84.44563195599498</v>
+        <v>84.445631955994983</v>
       </c>
       <c r="E2">
         <v>119.2147887361395</v>
       </c>
       <c r="F2">
-        <v>217.5522587847235</v>
+        <v>217.55225878472351</v>
       </c>
       <c r="G2">
         <v>1</v>

--- a/output/Tables/Linear/1€_km_duration.xlsx
+++ b/output/Tables/Linear/1€_km_duration.xlsx
@@ -1,53 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10119"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ines/Documents/M2/ENS/Stage/Walking benefits/codes/walking/output/Tables/Linear/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C8E4309-FD42-164F-89EE-5E87E175732F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="500" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
-  <si>
-    <t>km_2.5</t>
-  </si>
-  <si>
-    <t>km_50</t>
-  </si>
-  <si>
-    <t>km_97.5</t>
-  </si>
-  <si>
-    <t>duration_2.5</t>
-  </si>
-  <si>
-    <t>duration_50</t>
-  </si>
-  <si>
-    <t>duration_97.5</t>
-  </si>
-  <si>
-    <t>euro</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -95,21 +63,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -147,7 +107,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -181,7 +141,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -216,10 +175,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -392,62 +350,68 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="2" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.83203125" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>km_2.5</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>km_50</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>km_97.5</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>min_2.5</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>min_50</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>min_97.5</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>medic_costs</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2">
       <c r="A2">
-        <v>6.7556505564795977</v>
+        <v>6.755650556479598</v>
       </c>
       <c r="B2">
-        <v>9.5371830988911555</v>
+        <v>9.537183098891155</v>
       </c>
       <c r="C2">
-        <v>17.404180702777879</v>
+        <v>17.40418070277788</v>
       </c>
       <c r="D2">
-        <v>84.445631955994983</v>
+        <v>84.44563195599498</v>
       </c>
       <c r="E2">
         <v>119.2147887361395</v>
       </c>
       <c r="F2">
-        <v>217.55225878472351</v>
+        <v>217.5522587847235</v>
       </c>
       <c r="G2">
         <v>1</v>
